--- a/src/main/resources/excel/1 Present Setence.xlsx
+++ b/src/main/resources/excel/1 Present Setence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Giving bad news" sheetId="1" state="visible" r:id="rId3"/>
@@ -1234,16 +1234,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1462,7 +1458,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="63.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="35.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,7 +1468,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1483,7 +1479,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1494,7 +1490,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1505,7 +1501,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1516,7 +1512,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1527,7 +1523,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1538,7 +1534,7 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1549,7 +1545,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1560,7 +1556,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1571,7 +1567,7 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1582,7 +1578,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1593,7 +1589,7 @@
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1604,7 +1600,7 @@
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1615,7 +1611,7 @@
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1626,7 +1622,7 @@
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1657,7 +1653,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="51.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="77.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="39.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,7 +1663,7 @@
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1678,7 +1674,7 @@
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1689,7 +1685,7 @@
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1700,7 +1696,7 @@
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1711,7 +1707,7 @@
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1722,7 +1718,7 @@
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1733,7 +1729,7 @@
       <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1744,7 +1740,7 @@
       <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1755,7 +1751,7 @@
       <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1766,7 +1762,7 @@
       <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1777,7 +1773,7 @@
       <c r="B11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1788,7 +1784,7 @@
       <c r="B12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1799,7 +1795,7 @@
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1810,7 +1806,7 @@
       <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1821,7 +1817,7 @@
       <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1861,7 +1857,7 @@
       <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1872,7 +1868,7 @@
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1883,7 +1879,7 @@
       <c r="B3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1894,7 +1890,7 @@
       <c r="B4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1905,7 +1901,7 @@
       <c r="B5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1916,7 +1912,7 @@
       <c r="B6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1927,7 +1923,7 @@
       <c r="B7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1938,7 +1934,7 @@
       <c r="B8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1949,7 +1945,7 @@
       <c r="B9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1960,7 +1956,7 @@
       <c r="B10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1991,7 +1987,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="59.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2001,7 +1997,7 @@
       <c r="B1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2012,7 +2008,7 @@
       <c r="B2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2023,7 +2019,7 @@
       <c r="B3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2034,7 +2030,7 @@
       <c r="B4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2045,7 +2041,7 @@
       <c r="B5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2056,7 +2052,7 @@
       <c r="B6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2067,7 +2063,7 @@
       <c r="B7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2078,7 +2074,7 @@
       <c r="B8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2089,7 +2085,7 @@
       <c r="B9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2100,7 +2096,7 @@
       <c r="B10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2111,7 +2107,7 @@
       <c r="B11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2122,7 +2118,7 @@
       <c r="B12" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2133,7 +2129,7 @@
       <c r="B13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2144,7 +2140,7 @@
       <c r="B14" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2155,7 +2151,7 @@
       <c r="B15" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2184,9 +2180,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="33.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="33.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="32.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="30.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,7 +2193,7 @@
       <c r="B1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2207,7 +2204,7 @@
       <c r="B2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2218,7 +2215,7 @@
       <c r="B3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2229,7 +2226,7 @@
       <c r="B4" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2240,7 +2237,7 @@
       <c r="B5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2251,7 +2248,7 @@
       <c r="B6" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2262,7 +2259,7 @@
       <c r="B7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2273,7 +2270,7 @@
       <c r="B8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2284,7 +2281,7 @@
       <c r="B9" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2295,7 +2292,7 @@
       <c r="B10" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2306,7 +2303,7 @@
       <c r="B11" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2327,17 +2324,17 @@
     <tabColor rgb="FFF10D0C"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,7 +2344,7 @@
       <c r="B1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2358,7 +2355,7 @@
       <c r="B2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2369,7 +2366,7 @@
       <c r="B3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2380,7 +2377,7 @@
       <c r="B4" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2391,7 +2388,7 @@
       <c r="B5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2402,7 +2399,7 @@
       <c r="B6" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2413,7 +2410,7 @@
       <c r="B7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2424,7 +2421,7 @@
       <c r="B8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2435,7 +2432,7 @@
       <c r="B9" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2446,7 +2443,7 @@
       <c r="B10" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2457,7 +2454,7 @@
       <c r="B11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2468,7 +2465,7 @@
       <c r="B12" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2479,7 +2476,7 @@
       <c r="B13" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2490,7 +2487,7 @@
       <c r="B14" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2501,53 +2498,9 @@
       <c r="B15" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2574,9 +2527,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="43.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="28.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="36.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,7 +2539,7 @@
       <c r="B1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2597,7 +2550,7 @@
       <c r="B2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2608,7 +2561,7 @@
       <c r="B3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2619,7 +2572,7 @@
       <c r="B4" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -2630,7 +2583,7 @@
       <c r="B5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2641,7 +2594,7 @@
       <c r="B6" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>260</v>
       </c>
     </row>
@@ -2652,7 +2605,7 @@
       <c r="B7" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2663,7 +2616,7 @@
       <c r="B8" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2686,7 +2639,7 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -2694,7 +2647,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="49.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,7 +2657,7 @@
       <c r="B1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>269</v>
       </c>
     </row>
@@ -2715,7 +2668,7 @@
       <c r="B2" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -2726,7 +2679,7 @@
       <c r="B3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>275</v>
       </c>
     </row>
@@ -2737,7 +2690,7 @@
       <c r="B4" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2748,7 +2701,7 @@
       <c r="B5" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>281</v>
       </c>
     </row>
@@ -2759,7 +2712,7 @@
       <c r="B6" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2770,7 +2723,7 @@
       <c r="B7" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>287</v>
       </c>
     </row>
@@ -2781,7 +2734,7 @@
       <c r="B8" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>290</v>
       </c>
     </row>
@@ -2792,7 +2745,7 @@
       <c r="B9" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>293</v>
       </c>
     </row>
@@ -2803,7 +2756,7 @@
       <c r="B10" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>296</v>
       </c>
     </row>
@@ -2814,7 +2767,7 @@
       <c r="B11" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2825,7 +2778,7 @@
       <c r="B12" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2836,7 +2789,7 @@
       <c r="B13" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>305</v>
       </c>
     </row>
@@ -2847,7 +2800,7 @@
       <c r="B14" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>308</v>
       </c>
     </row>
@@ -2858,7 +2811,7 @@
       <c r="B15" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>311</v>
       </c>
     </row>
